--- a/strategy_backtest_full.xlsx
+++ b/strategy_backtest_full.xlsx
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,413 +584,556 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.74400000000004</v>
+        <v>59.23000000000004</v>
       </c>
       <c r="C2" t="n">
-        <v>61.74400000000004</v>
+        <v>59.23000000000004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05092023</t>
+          <t>04092023</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.28900000000009</v>
+        <v>-77.25099999999996</v>
       </c>
       <c r="C3" t="n">
-        <v>113.0330000000001</v>
+        <v>-18.02099999999992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06092023</t>
+          <t>05092023</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.18425000000005</v>
+        <v>28.17400000000005</v>
       </c>
       <c r="C4" t="n">
-        <v>163.2172500000002</v>
+        <v>10.15300000000013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08092023</t>
+          <t>06092023</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-345.9762499999999</v>
+        <v>40.81350000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>-182.7589999999998</v>
+        <v>50.96650000000016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13092023</t>
+          <t>07092023</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.026749999999936</v>
+        <v>29.1565</v>
       </c>
       <c r="C6" t="n">
-        <v>-185.7857499999997</v>
+        <v>80.12300000000016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15092023</t>
+          <t>08092023</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.168249999999944</v>
+        <v>52.56450000000002</v>
       </c>
       <c r="C7" t="n">
-        <v>-192.9539999999996</v>
+        <v>132.6875000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18092023</t>
+          <t>11092023</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.84200000000004</v>
+        <v>-29.67299999999996</v>
       </c>
       <c r="C8" t="n">
-        <v>-104.1119999999996</v>
+        <v>103.0145000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20092023</t>
+          <t>12092023</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.58200000000009</v>
+        <v>44.76975000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.529999999999504</v>
+        <v>147.7842500000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21092023</t>
+          <t>13092023</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-48.24974999999995</v>
+        <v>51.98600000000005</v>
       </c>
       <c r="C10" t="n">
-        <v>-53.77974999999945</v>
+        <v>199.7702500000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25092023</t>
+          <t>14092023</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.59449999999994</v>
+        <v>-28.32899999999992</v>
       </c>
       <c r="C11" t="n">
-        <v>-88.37424999999939</v>
+        <v>171.4412500000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27092023</t>
+          <t>15092023</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.133999999999958</v>
+        <v>-37.80675000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-92.50824999999935</v>
+        <v>133.6345000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28092023</t>
+          <t>18092023</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-18.79674999999989</v>
+        <v>-38.84824999999996</v>
       </c>
       <c r="C13" t="n">
-        <v>-111.3049999999992</v>
+        <v>94.78625000000038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29092023</t>
+          <t>20092023</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>616.2017500000001</v>
+        <v>139.05975</v>
       </c>
       <c r="C14" t="n">
-        <v>504.8967500000008</v>
+        <v>233.8460000000004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03102023</t>
+          <t>21092023</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.4637500000001</v>
+        <v>-47.12574999999993</v>
       </c>
       <c r="C15" t="n">
-        <v>698.3605000000009</v>
+        <v>186.7202500000005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06102023</t>
+          <t>22092023</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-118.0747499999998</v>
+        <v>39.01800000000003</v>
       </c>
       <c r="C16" t="n">
-        <v>580.2857500000011</v>
+        <v>225.7382500000005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10102023</t>
+          <t>25092023</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-60.41124999999991</v>
+        <v>-38.78599999999996</v>
       </c>
       <c r="C17" t="n">
-        <v>519.8745000000013</v>
+        <v>186.9522500000006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11102023</t>
+          <t>26092023</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-243.5949999999999</v>
+        <v>-69.68399999999997</v>
       </c>
       <c r="C18" t="n">
-        <v>276.2795000000013</v>
+        <v>117.2682500000006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12102023</t>
+          <t>27092023</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.93299999999999</v>
+        <v>5.233000000000025</v>
       </c>
       <c r="C19" t="n">
-        <v>368.2125000000013</v>
+        <v>122.5012500000006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16102023</t>
+          <t>28092023</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.96250000000001</v>
+        <v>-31.45850000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>418.1750000000013</v>
+        <v>91.04275000000061</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17102023</t>
+          <t>29092023</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.37650000000004</v>
+        <v>-147.041</v>
       </c>
       <c r="C21" t="n">
-        <v>448.5515000000013</v>
+        <v>-55.99824999999939</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18102023</t>
+          <t>03102023</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.1945000000001</v>
+        <v>139.0305</v>
       </c>
       <c r="C22" t="n">
-        <v>555.7460000000015</v>
+        <v>83.03225000000063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19102023</t>
+          <t>04102023</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-19.48199999999999</v>
+        <v>-65.30274999999992</v>
       </c>
       <c r="C23" t="n">
-        <v>536.2640000000015</v>
+        <v>17.72950000000071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20102023</t>
+          <t>05102023</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.654250000000062</v>
+        <v>14.99375000000003</v>
       </c>
       <c r="C24" t="n">
-        <v>542.9182500000015</v>
+        <v>32.72325000000075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23102023</t>
+          <t>06102023</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-68.27674999999985</v>
+        <v>-242.8984999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>474.6415000000017</v>
+        <v>-210.1752499999992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25102023</t>
+          <t>09102023</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>107.49525</v>
+        <v>-216.7619999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>582.1367500000017</v>
+        <v>-426.937249999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26102023</t>
+          <t>10102023</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-95.98874999999994</v>
+        <v>69.20025000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>486.1480000000018</v>
+        <v>-357.736999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27102023</t>
+          <t>11102023</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-89.07974999999993</v>
+        <v>-39.0034999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>397.0682500000019</v>
+        <v>-396.7404999999989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30102023</t>
+          <t>12102023</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-46.59049999999996</v>
+        <v>147.74225</v>
       </c>
       <c r="C29" t="n">
-        <v>350.4777500000019</v>
+        <v>-248.9982499999989</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13102023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>94.09650000000003</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-154.9017499999989</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16102023</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28.04925000000004</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-126.8524999999988</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>PnL</t>
-        </is>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17102023</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>40.03675000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-86.81574999999881</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>18102023</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>504.8967500000008</v>
+        <v>144.463</v>
+      </c>
+      <c r="C33" t="n">
+        <v>57.64725000000121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>19102023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-34.77825</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22.86900000000121</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20102023</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>35.33400000000003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>58.20300000000124</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23102023</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-202.6409999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-144.4379999999987</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25102023</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>97.37350000000004</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-47.06449999999865</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26102023</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-50.18024999999989</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-97.24474999999853</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>27102023</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-103.438</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-200.6827499999985</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30102023</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-53.24774999999994</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-253.9304999999984</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-55.9982499999994</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-154.4189999999991</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="B45" t="n">
+        <v>-197.9322499999991</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>PnL</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="49">
+      <c r="A49" t="n">
         <v>2023</v>
       </c>
-      <c r="B38" t="n">
-        <v>350.4777500000017</v>
+      <c r="B49" t="n">
+        <v>-253.9304999999985</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,82 +1173,92 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Exit Time</t>
+          <t>Main Exit Time</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Hedge Exit Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Strike</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Hedge Strike</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Entry Price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Exit Price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Hedge Entry</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hedge Exit Price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Main P&amp;L</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hedge P&amp;L</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Total P&amp;L</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Main P&amp;L %</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Hedge P&amp;L %</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Total P&amp;L %</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Entry Reason</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Exit Reason</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Main Exit Reason</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Hedge Exit Reason</t>
         </is>
       </c>
     </row>
@@ -1127,362 +1280,412 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09:29:00</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>44400</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>43500</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>218.701</v>
       </c>
-      <c r="I2" t="n">
-        <v>138.03675</v>
-      </c>
       <c r="J2" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>36.53175</v>
       </c>
-      <c r="K2" t="n">
-        <v>17.6115</v>
-      </c>
       <c r="L2" t="n">
-        <v>80.66425000000004</v>
+        <v>17.76075</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.92025</v>
+        <v>78.00100000000003</v>
       </c>
       <c r="N2" t="n">
-        <v>61.74400000000004</v>
+        <v>-18.77099999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>36.88334758414457</v>
+        <v>59.23000000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>-51.79125007698782</v>
+        <v>35.66558909195661</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.19125288584636</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-51.3827013488267</v>
+      </c>
+      <c r="R2" t="n">
+        <v>23.20626957159692</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Hedge Trail Stop</t>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04092023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>05092023</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>06092023</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:50:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:27:00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>44500</v>
+          <t>09:18:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>45400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>744.30975</v>
+        <v>44600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43700</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>692.2439999999999</v>
+        <v>171.28925</v>
       </c>
       <c r="J3" t="n">
-        <v>3.065249999999999</v>
+        <v>294.465</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2885</v>
+        <v>19.44675</v>
       </c>
       <c r="L3" t="n">
-        <v>52.06575000000009</v>
+        <v>65.3715</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.7767499999999994</v>
+        <v>-123.17575</v>
       </c>
       <c r="N3" t="n">
-        <v>51.28900000000009</v>
+        <v>45.92475</v>
       </c>
       <c r="O3" t="n">
-        <v>6.995172372792388</v>
+        <v>-77.25099999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>-25.34051056194436</v>
+        <v>-71.91096347260553</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.862552266265275</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>236.1564271664931</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-40.50153091183623</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05092023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>06092023</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>07092023</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:22:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:15:00</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>44500</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>45400</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>653.914</v>
-      </c>
       <c r="I4" t="n">
-        <v>621.2909999999999</v>
+        <v>356.608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05025</v>
+        <v>318.43425</v>
       </c>
       <c r="K4" t="n">
-        <v>17.6115</v>
+        <v>49.99874999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>32.62300000000005</v>
+        <v>39.999</v>
       </c>
       <c r="M4" t="n">
-        <v>17.56125</v>
+        <v>38.17375000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>50.18425000000005</v>
+        <v>-9.999749999999992</v>
       </c>
       <c r="O4" t="n">
-        <v>4.988882330092344</v>
+        <v>28.17400000000005</v>
       </c>
       <c r="P4" t="n">
-        <v>34947.76119402986</v>
+        <v>10.70468133076096</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.673852202165493</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>-19.99999999999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.929053686393562</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08092023</t>
+          <t>06092023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11092023</t>
+          <t>07092023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:17:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09:45:00</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>45200</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>44300</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>448.6455</v>
+        <v>44500</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45400</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>383.96025</v>
+        <v>259.84425</v>
       </c>
       <c r="J5" t="n">
-        <v>432.50175</v>
+        <v>212.40675</v>
       </c>
       <c r="K5" t="n">
-        <v>21.84025</v>
+        <v>25.728</v>
       </c>
       <c r="L5" t="n">
-        <v>64.68525</v>
+        <v>19.104</v>
       </c>
       <c r="M5" t="n">
-        <v>-410.6614999999999</v>
+        <v>47.43750000000003</v>
       </c>
       <c r="N5" t="n">
-        <v>-345.9762499999999</v>
+        <v>-6.623999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>14.41789787259652</v>
+        <v>40.81350000000003</v>
       </c>
       <c r="P5" t="n">
-        <v>-94.95025164638061</v>
+        <v>18.25612843078114</v>
       </c>
       <c r="Q5" t="n">
-        <v>-39.2642943616972</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>-25.74626865671641</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14.29182982590221</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Time Exit</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13092023</t>
+          <t>07092023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14092023</t>
+          <t>08092023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:17:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:27:00</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>45900</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>44800</v>
+      </c>
+      <c r="G6" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>418.04925</v>
-      </c>
       <c r="I6" t="n">
-        <v>399.1357499999999</v>
+        <v>214.0245</v>
       </c>
       <c r="J6" t="n">
-        <v>190.0455</v>
+        <v>173.7645</v>
       </c>
       <c r="K6" t="n">
-        <v>168.10525</v>
+        <v>35.92874999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>18.91350000000006</v>
+        <v>24.82525</v>
       </c>
       <c r="M6" t="n">
-        <v>-21.94024999999999</v>
+        <v>40.25999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.026749999999936</v>
+        <v>-11.10349999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>4.524227707620588</v>
+        <v>29.1565</v>
       </c>
       <c r="P6" t="n">
-        <v>-11.54473533969496</v>
+        <v>18.81093052430913</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4977431559802047</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>-30.90422015795149</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11.66478131410574</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15092023</t>
+          <t>08092023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18092023</t>
+          <t>11092023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1492,70 +1695,80 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:45:00</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>46200</v>
+          <t>09:20:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>45200</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44300</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>403.2735</v>
-      </c>
       <c r="I7" t="n">
-        <v>410.04</v>
+        <v>229.99425</v>
       </c>
       <c r="J7" t="n">
-        <v>165.37275</v>
+        <v>160.74975</v>
       </c>
       <c r="K7" t="n">
-        <v>164.971</v>
+        <v>36.381</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.766499999999951</v>
+        <v>19.701</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.4017499999999927</v>
+        <v>69.24450000000002</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.168249999999944</v>
+        <v>-16.68</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.677893538752224</v>
+        <v>52.56450000000002</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2429360338991718</v>
+        <v>30.1070570242517</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.26058160059966</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-45.84810752865507</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19.73325224471869</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Time Exit</t>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18092023</t>
+          <t>11092023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20092023</t>
+          <t>12092023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1565,70 +1778,80 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09:27:00</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>46000</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>46900</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>524.11625</v>
+        <v>45600</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44700</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>379.89</v>
+        <v>185.11975</v>
       </c>
       <c r="J8" t="n">
-        <v>151.2525</v>
+        <v>258.285</v>
       </c>
       <c r="K8" t="n">
-        <v>95.86824999999999</v>
+        <v>23.919</v>
       </c>
       <c r="L8" t="n">
-        <v>144.2262500000001</v>
+        <v>67.41125</v>
       </c>
       <c r="M8" t="n">
-        <v>-55.38425000000001</v>
+        <v>-73.16524999999996</v>
       </c>
       <c r="N8" t="n">
-        <v>88.84200000000004</v>
+        <v>43.49225</v>
       </c>
       <c r="O8" t="n">
-        <v>27.51798861416719</v>
+        <v>-29.67299999999996</v>
       </c>
       <c r="P8" t="n">
-        <v>-36.61708070940976</v>
+        <v>-39.52320052290474</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.15459147317669</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>181.8313892721268</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-14.19497581190088</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20092023</t>
+          <t>12092023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21092023</t>
+          <t>13092023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1638,70 +1861,80 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:23:00</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>45400</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>46300</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>45500</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46400</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>585.259</v>
-      </c>
       <c r="I9" t="n">
-        <v>417.0749999999999</v>
+        <v>354.22</v>
       </c>
       <c r="J9" t="n">
-        <v>175.1715</v>
+        <v>292.254</v>
       </c>
       <c r="K9" t="n">
-        <v>105.5695</v>
+        <v>63.26475</v>
       </c>
       <c r="L9" t="n">
-        <v>168.1840000000001</v>
+        <v>46.0685</v>
       </c>
       <c r="M9" t="n">
-        <v>-69.60199999999999</v>
+        <v>61.96600000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>98.58200000000009</v>
+        <v>-17.19625</v>
       </c>
       <c r="O9" t="n">
-        <v>28.73667897460784</v>
+        <v>44.76975000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>-39.73363246875205</v>
+        <v>17.49364801535769</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.96397238143395</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>-27.18140828818576</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10.72368511664199</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21092023</t>
+          <t>13092023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22092023</t>
+          <t>14092023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1714,67 +1947,77 @@
           <t>09:17:00</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>44600</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>45500</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>564.563</v>
+        <v>45900</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>641.391</v>
+        <v>290.39075</v>
       </c>
       <c r="J10" t="n">
-        <v>172.80975</v>
+        <v>219.44175</v>
       </c>
       <c r="K10" t="n">
-        <v>201.388</v>
+        <v>65.82749999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-76.82799999999997</v>
+        <v>46.8645</v>
       </c>
       <c r="M10" t="n">
-        <v>28.57825000000003</v>
+        <v>70.94900000000004</v>
       </c>
       <c r="N10" t="n">
-        <v>-48.24974999999995</v>
+        <v>-18.96299999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>-13.60840154243193</v>
+        <v>51.98600000000005</v>
       </c>
       <c r="P10" t="n">
-        <v>16.53740602020432</v>
+        <v>24.43225206037039</v>
       </c>
       <c r="Q10" t="n">
-        <v>-6.543468008547909</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>-28.80710949071436</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14.59386204945986</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25092023</t>
+          <t>14092023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26092023</t>
+          <t>15092023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1784,70 +2027,80 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:37:00</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>44700</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>43800</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>266.66</v>
+        <v>46000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46900</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>312.70575</v>
+        <v>291.98275</v>
       </c>
       <c r="J11" t="n">
-        <v>74.11874999999999</v>
+        <v>320.2934999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>85.56999999999999</v>
+        <v>36.83324999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>-46.04574999999994</v>
+        <v>36.815</v>
       </c>
       <c r="M11" t="n">
-        <v>11.45125</v>
+        <v>-28.31074999999993</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.59449999999994</v>
+        <v>-0.01824999999999477</v>
       </c>
       <c r="O11" t="n">
-        <v>-17.26758793969847</v>
+        <v>-28.32899999999992</v>
       </c>
       <c r="P11" t="n">
-        <v>15.4498692975799</v>
+        <v>-9.696035125362688</v>
       </c>
       <c r="Q11" t="n">
-        <v>-10.15160129556198</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>-0.0495476234108985</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-8.615456668775218</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27092023</t>
+          <t>15092023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28092023</t>
+          <t>18092023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1857,216 +2110,246 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:20:00</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>44600</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>43700</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>46200</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>239.74525</v>
-      </c>
       <c r="I12" t="n">
-        <v>240.195</v>
+        <v>203.42775</v>
       </c>
       <c r="J12" t="n">
-        <v>55.27499999999999</v>
+        <v>236.4765</v>
       </c>
       <c r="K12" t="n">
-        <v>51.59075</v>
+        <v>28.19025</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.4497499999999661</v>
+        <v>23.43225</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.684249999999992</v>
+        <v>-33.04875000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.133999999999958</v>
+        <v>-4.757999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1875949575643172</v>
+        <v>-37.80675000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>-6.665309814563532</v>
+        <v>-16.24593989758035</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.401259744034505</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>-16.87817596509431</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-16.32288941273995</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28092023</t>
+          <t>18092023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29092023</t>
+          <t>20092023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:04:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09:29:00</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>44300</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>45200</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>46000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>46900</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>988.1345</v>
-      </c>
       <c r="I13" t="n">
-        <v>1003.995</v>
+        <v>148.40425</v>
       </c>
       <c r="J13" t="n">
-        <v>50.09925</v>
+        <v>224.115</v>
       </c>
       <c r="K13" t="n">
-        <v>47.163</v>
+        <v>5.226</v>
       </c>
       <c r="L13" t="n">
-        <v>-15.86049999999989</v>
+        <v>42.0885</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.936250000000001</v>
+        <v>-75.71074999999996</v>
       </c>
       <c r="N13" t="n">
-        <v>-18.79674999999989</v>
+        <v>36.8625</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.605095257781192</v>
+        <v>-38.84824999999996</v>
       </c>
       <c r="P13" t="n">
-        <v>-5.860866180631449</v>
+        <v>-51.016564552565</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.810454533962115</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>705.3673938002296</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-25.28684943232206</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29092023</t>
+          <t>20092023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03102023</t>
+          <t>21092023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:27:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09:39:00</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>44600</v>
+          <t>09:18:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>43700</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>958.1849999999999</v>
+        <v>45400</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46300</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>344.715</v>
+        <v>418.5965</v>
       </c>
       <c r="J14" t="n">
-        <v>20.45175</v>
+        <v>241.7025</v>
       </c>
       <c r="K14" t="n">
-        <v>23.1835</v>
+        <v>77.43524999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>613.47</v>
+        <v>39.601</v>
       </c>
       <c r="M14" t="n">
-        <v>2.731750000000002</v>
+        <v>176.894</v>
       </c>
       <c r="N14" t="n">
-        <v>616.2017500000001</v>
+        <v>-37.83424999999998</v>
       </c>
       <c r="O14" t="n">
-        <v>64.0241706977254</v>
+        <v>139.05975</v>
       </c>
       <c r="P14" t="n">
-        <v>13.3570476854059</v>
+        <v>42.25883398451732</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.96531884787692</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>-48.85920817715445</v>
+      </c>
+      <c r="R14" t="n">
+        <v>28.03444537572444</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03102023</t>
+          <t>21092023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04102023</t>
+          <t>22092023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2076,70 +2359,80 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:18:00</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>44400</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:23:00</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>44600</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45500</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>792.02</v>
-      </c>
       <c r="I15" t="n">
-        <v>598.1759999999999</v>
+        <v>389.1445</v>
       </c>
       <c r="J15" t="n">
-        <v>3.216</v>
+        <v>475.1137499999999</v>
       </c>
       <c r="K15" t="n">
-        <v>2.83575</v>
+        <v>76.12875</v>
       </c>
       <c r="L15" t="n">
-        <v>193.8440000000001</v>
+        <v>114.97225</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.3802499999999998</v>
+        <v>-85.96924999999993</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4637500000001</v>
+        <v>38.84350000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>24.47463447892731</v>
+        <v>-47.12574999999993</v>
       </c>
       <c r="P15" t="n">
-        <v>-11.82369402985074</v>
+        <v>-22.09185790882306</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.32784104341354</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>51.0234307012791</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-10.12861796804349</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06102023</t>
+          <t>22092023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09102023</t>
+          <t>25092023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2149,70 +2442,80 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:16:00</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>44400</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>43500</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>441.13325</v>
+        <v>44600</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45500</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>698.3242499999999</v>
+        <v>319.54425</v>
       </c>
       <c r="J16" t="n">
-        <v>193.4625</v>
+        <v>267.0285</v>
       </c>
       <c r="K16" t="n">
-        <v>332.57875</v>
+        <v>51.55649999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>-257.1909999999999</v>
+        <v>38.05875</v>
       </c>
       <c r="M16" t="n">
-        <v>139.11625</v>
+        <v>52.51575000000003</v>
       </c>
       <c r="N16" t="n">
-        <v>-118.0747499999998</v>
+        <v>-13.49775</v>
       </c>
       <c r="O16" t="n">
-        <v>-58.30233835241388</v>
+        <v>39.01800000000003</v>
       </c>
       <c r="P16" t="n">
-        <v>71.90863862505657</v>
+        <v>16.43457830957685</v>
       </c>
       <c r="Q16" t="n">
-        <v>-18.60629384927331</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>-26.18050100375316</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10.51412588090971</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10102023</t>
+          <t>25092023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11102023</t>
+          <t>26092023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2222,70 +2525,80 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09:15:00</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>44400</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>43500</v>
-      </c>
-      <c r="G17" t="inlineStr">
+        <v>44700</v>
+      </c>
+      <c r="G17" t="n">
+        <v>43800</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>470.834</v>
-      </c>
       <c r="I17" t="n">
-        <v>469.9882499999999</v>
+        <v>171.68725</v>
       </c>
       <c r="J17" t="n">
-        <v>216.477</v>
+        <v>211.1505</v>
       </c>
       <c r="K17" t="n">
-        <v>155.22</v>
+        <v>16.93425</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8457500000000664</v>
+        <v>17.6115</v>
       </c>
       <c r="M17" t="n">
-        <v>-61.25699999999998</v>
+        <v>-39.46324999999996</v>
       </c>
       <c r="N17" t="n">
-        <v>-60.41124999999991</v>
+        <v>0.6772500000000008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1796280642434629</v>
+        <v>-38.78599999999996</v>
       </c>
       <c r="P17" t="n">
-        <v>-28.29723250045039</v>
+        <v>-22.98554493708761</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.789507224531532</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>3.999291376943182</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-20.56287326736345</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11102023</t>
+          <t>26092023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12102023</t>
+          <t>27092023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2295,143 +2608,163 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:15:00</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>44500</v>
+          <t>09:45:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>45400</v>
-      </c>
-      <c r="G18" t="inlineStr">
+        <v>44600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>45500</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>667.645</v>
-      </c>
       <c r="I18" t="n">
-        <v>720.5849999999999</v>
+        <v>204.4725</v>
       </c>
       <c r="J18" t="n">
-        <v>251.30025</v>
+        <v>322.605</v>
       </c>
       <c r="K18" t="n">
-        <v>60.64525</v>
+        <v>10.80375</v>
       </c>
       <c r="L18" t="n">
-        <v>-52.93999999999994</v>
+        <v>59.25225</v>
       </c>
       <c r="M18" t="n">
-        <v>-190.655</v>
+        <v>-118.1325</v>
       </c>
       <c r="N18" t="n">
-        <v>-243.5949999999999</v>
+        <v>48.4485</v>
       </c>
       <c r="O18" t="n">
-        <v>-7.929363658830657</v>
+        <v>-69.68399999999997</v>
       </c>
       <c r="P18" t="n">
-        <v>-75.86741358196022</v>
+        <v>-57.77427282397387</v>
       </c>
       <c r="Q18" t="n">
-        <v>-26.50810807281499</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>448.4415133634155</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-32.36957165502463</v>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Time Exit</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12102023</t>
+          <t>27092023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13102023</t>
+          <t>28092023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:23:00</t>
+          <t>15:25:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:18:00</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>44600</v>
       </c>
-      <c r="F19" t="n">
-        <v>45500</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>625.6559999999999</v>
+      <c r="G19" t="n">
+        <v>43700</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>462.903</v>
+        <v>239.74525</v>
       </c>
       <c r="J19" t="n">
-        <v>217.5825</v>
+        <v>228.78825</v>
       </c>
       <c r="K19" t="n">
-        <v>146.7625</v>
+        <v>55.27499999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>162.753</v>
+        <v>49.55099999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>-70.81999999999999</v>
+        <v>10.95700000000002</v>
       </c>
       <c r="N19" t="n">
-        <v>91.93299999999999</v>
+        <v>-5.723999999999997</v>
       </c>
       <c r="O19" t="n">
-        <v>26.01317656987226</v>
+        <v>5.233000000000025</v>
       </c>
       <c r="P19" t="n">
-        <v>-32.54857352958073</v>
+        <v>4.57026781552503</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.90237222327965</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>-10.35549525101763</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.773776545847285</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16102023</t>
+          <t>28092023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17102023</t>
+          <t>29092023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2441,70 +2774,80 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09:34:00</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>44200</v>
+          <t>09:19:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>43300</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>380.09</v>
+        <v>44300</v>
+      </c>
+      <c r="G20" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>279.33975</v>
+        <v>356.9065</v>
       </c>
       <c r="J20" t="n">
-        <v>149.29275</v>
+        <v>391.548</v>
       </c>
       <c r="K20" t="n">
-        <v>98.505</v>
+        <v>50.09925</v>
       </c>
       <c r="L20" t="n">
-        <v>100.75025</v>
+        <v>53.28225</v>
       </c>
       <c r="M20" t="n">
-        <v>-50.78774999999999</v>
+        <v>-34.64150000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>49.96250000000001</v>
+        <v>3.183</v>
       </c>
       <c r="O20" t="n">
-        <v>26.5069457233813</v>
+        <v>-31.45850000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>-34.01889910930035</v>
+        <v>-9.70604345956154</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.437878359277859</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>6.353388523780295</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-7.729251982312292</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17102023</t>
+          <t>29092023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18102023</t>
+          <t>03102023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2514,70 +2857,80 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:23:00</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>44400</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:22:00</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>532.126</v>
+        <v>44600</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43700</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I21" t="n">
-        <v>482.4</v>
+        <v>182.5825</v>
       </c>
       <c r="J21" t="n">
-        <v>144.66975</v>
+        <v>437.52675</v>
       </c>
       <c r="K21" t="n">
-        <v>125.32025</v>
+        <v>20.45175</v>
       </c>
       <c r="L21" t="n">
-        <v>49.726</v>
+        <v>128.355</v>
       </c>
       <c r="M21" t="n">
-        <v>-19.34949999999996</v>
+        <v>-254.94425</v>
       </c>
       <c r="N21" t="n">
-        <v>30.37650000000004</v>
+        <v>107.90325</v>
       </c>
       <c r="O21" t="n">
-        <v>9.344779244013637</v>
+        <v>-147.041</v>
       </c>
       <c r="P21" t="n">
-        <v>-13.37494534966706</v>
+        <v>-139.6323579751619</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.488281730492551</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>527.5991052110454</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-72.42177120362697</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18102023</t>
+          <t>03102023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19102023</t>
+          <t>04102023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2587,70 +2940,80 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09:28:00</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>43900</v>
+          <t>09:33:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>44800</v>
-      </c>
-      <c r="G22" t="inlineStr">
+        <v>44400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>599.73625</v>
-      </c>
       <c r="I22" t="n">
-        <v>417.678</v>
+        <v>353.17525</v>
       </c>
       <c r="J22" t="n">
-        <v>178.9905</v>
+        <v>181.0005</v>
       </c>
       <c r="K22" t="n">
-        <v>104.12675</v>
+        <v>56.07899999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>182.05825</v>
+        <v>22.93475</v>
       </c>
       <c r="M22" t="n">
-        <v>-74.86374999999997</v>
+        <v>172.17475</v>
       </c>
       <c r="N22" t="n">
-        <v>107.1945000000001</v>
+        <v>-33.14424999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>30.35638582793687</v>
+        <v>139.0305</v>
       </c>
       <c r="P22" t="n">
-        <v>-41.82554381377781</v>
+        <v>48.75051408613712</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.76535479229397</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>-59.10278357317355</v>
+      </c>
+      <c r="R22" t="n">
+        <v>33.97166920074746</v>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19102023</t>
+          <t>04102023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20102023</t>
+          <t>05102023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2660,70 +3023,80 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:42:00</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>43700</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:20:00</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>42800</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>313.67375</v>
+        <v>44000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>44900</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>327.9315</v>
+        <v>360.6875</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0475</v>
+        <v>448.9334999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>104.82325</v>
+        <v>49.14449999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>-14.25774999999999</v>
+        <v>72.08775</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.224249999999998</v>
+        <v>-88.24599999999992</v>
       </c>
       <c r="N23" t="n">
-        <v>-19.48199999999999</v>
+        <v>22.94325000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>-4.545407449619226</v>
+        <v>-65.30274999999992</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.747268225084621</v>
+        <v>-24.46605440998092</v>
       </c>
       <c r="Q23" t="n">
-        <v>-4.597834071338171</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>46.68528523029028</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-15.93402906556831</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20102023</t>
+          <t>05102023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23102023</t>
+          <t>06102023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2733,70 +3106,80 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09:24:00</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>43700</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>42800</v>
-      </c>
-      <c r="G24" t="inlineStr">
+        <v>44200</v>
+      </c>
+      <c r="G24" t="n">
+        <v>43300</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>329.59375</v>
-      </c>
       <c r="I24" t="n">
-        <v>299.9924999999999</v>
+        <v>217.95475</v>
       </c>
       <c r="J24" t="n">
-        <v>106.2285</v>
+        <v>194.31675</v>
       </c>
       <c r="K24" t="n">
-        <v>83.28150000000001</v>
+        <v>33.768</v>
       </c>
       <c r="L24" t="n">
-        <v>29.60125000000005</v>
+        <v>25.12375</v>
       </c>
       <c r="M24" t="n">
-        <v>-22.94699999999999</v>
+        <v>23.63800000000003</v>
       </c>
       <c r="N24" t="n">
-        <v>6.654250000000062</v>
+        <v>-8.64425</v>
       </c>
       <c r="O24" t="n">
-        <v>8.981132075471713</v>
+        <v>14.99375000000003</v>
       </c>
       <c r="P24" t="n">
-        <v>-21.60154760728052</v>
+        <v>10.84537042665968</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.526826590427648</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>-25.59893982468609</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.956454074969399</v>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23102023</t>
+          <t>06102023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25102023</t>
+          <t>09102023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2806,70 +3189,80 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>09:18:00</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>43100</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>458.94375</v>
+        <v>44400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I25" t="n">
-        <v>548.7299999999999</v>
+        <v>223.5765</v>
       </c>
       <c r="J25" t="n">
-        <v>108.2385</v>
+        <v>536.4689999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>129.748</v>
+        <v>25.4265</v>
       </c>
       <c r="L25" t="n">
-        <v>-89.78624999999988</v>
+        <v>95.4205</v>
       </c>
       <c r="M25" t="n">
-        <v>21.50950000000003</v>
+        <v>-312.8924999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>-68.27674999999985</v>
+        <v>69.994</v>
       </c>
       <c r="O25" t="n">
-        <v>-19.56367201862971</v>
+        <v>-242.8984999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>19.87231899924707</v>
+        <v>-139.9487423767704</v>
       </c>
       <c r="Q25" t="n">
-        <v>-12.03788552973931</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>275.2797278429985</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-97.54842311136811</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Hedge Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25102023</t>
+          <t>09102023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26102023</t>
+          <t>10102023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2879,70 +3272,80 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09:24:00</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>42800</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>43700</v>
-      </c>
-      <c r="G26" t="inlineStr">
+        <v>43900</v>
+      </c>
+      <c r="G26" t="n">
+        <v>44800</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>417.4025</v>
-      </c>
       <c r="I26" t="n">
-        <v>278.83725</v>
+        <v>184.5725</v>
       </c>
       <c r="J26" t="n">
-        <v>82.61099999999999</v>
+        <v>484.8119999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>51.541</v>
+        <v>10.30125</v>
       </c>
       <c r="L26" t="n">
-        <v>138.56525</v>
+        <v>93.77875</v>
       </c>
       <c r="M26" t="n">
-        <v>-31.06999999999999</v>
+        <v>-300.2394999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>107.49525</v>
+        <v>83.47750000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>33.19703403788909</v>
+        <v>-216.7619999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>-37.61000351042839</v>
+        <v>-162.6675154749488</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.49846954132239</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>810.362820046111</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-111.2320155998434</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>Market DOWN, Sell CE</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Main Trail Stop</t>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26102023</t>
+          <t>10102023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>27102023</t>
+          <t>11102023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2952,70 +3355,80 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:35:00</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>42300</v>
+          <t>09:25:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>43100</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>380.9855</v>
+        <v>44400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>509.98725</v>
+        <v>310.39025</v>
       </c>
       <c r="J27" t="n">
-        <v>72.10874999999999</v>
+        <v>204.9195</v>
       </c>
       <c r="K27" t="n">
-        <v>105.12175</v>
+        <v>85.27424999999998</v>
       </c>
       <c r="L27" t="n">
-        <v>-129.00175</v>
+        <v>49.00375</v>
       </c>
       <c r="M27" t="n">
-        <v>33.01300000000002</v>
+        <v>105.47075</v>
       </c>
       <c r="N27" t="n">
-        <v>-95.98874999999994</v>
+        <v>-36.27049999999998</v>
       </c>
       <c r="O27" t="n">
-        <v>-33.86001566988769</v>
+        <v>69.20025000000003</v>
       </c>
       <c r="P27" t="n">
-        <v>45.7822386326209</v>
+        <v>33.98004608714353</v>
       </c>
       <c r="Q27" t="n">
-        <v>-21.1851618068426</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Market DOWN, Sell CE</t>
-        </is>
+        <v>-42.53394195785948</v>
+      </c>
+      <c r="R27" t="n">
+        <v>17.48962820773661</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27102023</t>
+          <t>11102023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>30102023</t>
+          <t>12102023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3025,131 +3438,1064 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:15:00</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>42800</v>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>41900</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>213.67625</v>
+        <v>44500</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45400</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
       </c>
       <c r="I28" t="n">
-        <v>307.2787499999999</v>
+        <v>372.2295</v>
       </c>
       <c r="J28" t="n">
-        <v>40.45124999999999</v>
+        <v>417.0749999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>44.974</v>
+        <v>52.86299999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>-93.60249999999994</v>
+        <v>58.705</v>
       </c>
       <c r="M28" t="n">
-        <v>4.522750000000009</v>
+        <v>-44.8454999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>-89.07974999999993</v>
+        <v>5.842000000000006</v>
       </c>
       <c r="O28" t="n">
-        <v>-43.80575754207589</v>
+        <v>-39.0034999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>11.18074225147557</v>
+        <v>-12.04780921447652</v>
       </c>
       <c r="Q28" t="n">
-        <v>-35.05317212816399</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Market UP, Sell PE</t>
-        </is>
+        <v>11.05120783913135</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-9.175297141210418</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Main Trail Stop</t>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>12102023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>13102023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>44600</v>
+      </c>
+      <c r="G29" t="n">
+        <v>45500</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>310.58925</v>
+      </c>
+      <c r="J29" t="n">
+        <v>142.2075</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34.32075</v>
+      </c>
+      <c r="L29" t="n">
+        <v>13.68125</v>
+      </c>
+      <c r="M29" t="n">
+        <v>168.38175</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-20.6395</v>
+      </c>
+      <c r="O29" t="n">
+        <v>147.74225</v>
+      </c>
+      <c r="P29" t="n">
+        <v>54.21364390428839</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-60.1370890787643</v>
+      </c>
+      <c r="R29" t="n">
+        <v>42.8350149314314</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13102023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16102023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>09:22:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>44200</v>
+      </c>
+      <c r="G30" t="n">
+        <v>45100</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>291.336</v>
+      </c>
+      <c r="J30" t="n">
+        <v>183.8145</v>
+      </c>
+      <c r="K30" t="n">
+        <v>29.2455</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15.8205</v>
+      </c>
+      <c r="M30" t="n">
+        <v>107.5215</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-13.425</v>
+      </c>
+      <c r="O30" t="n">
+        <v>94.09650000000003</v>
+      </c>
+      <c r="P30" t="n">
+        <v>36.90635554823298</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-45.90449812791711</v>
+      </c>
+      <c r="R30" t="n">
+        <v>29.35181849233348</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16102023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17102023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>44200</v>
+      </c>
+      <c r="G31" t="n">
+        <v>43300</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>189.9455</v>
+      </c>
+      <c r="J31" t="n">
+        <v>200.54775</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.42675</v>
+      </c>
+      <c r="L31" t="n">
+        <v>54.07825</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-10.60224999999997</v>
+      </c>
+      <c r="N31" t="n">
+        <v>38.65150000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>28.04925000000004</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-5.581732654893098</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>250.5485601309414</v>
+      </c>
+      <c r="R31" t="n">
+        <v>13.65776048127244</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17102023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18102023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>09:45:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>44400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>384.468</v>
+      </c>
+      <c r="J32" t="n">
+        <v>328.3335</v>
+      </c>
+      <c r="K32" t="n">
+        <v>62.86274999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>46.765</v>
+      </c>
+      <c r="M32" t="n">
+        <v>56.1345</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-16.09774999999999</v>
+      </c>
+      <c r="O32" t="n">
+        <v>40.03675000000001</v>
+      </c>
+      <c r="P32" t="n">
+        <v>14.60056493648366</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-25.60777248847687</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8.950144831313299</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Time Exit</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18102023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>19102023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>43900</v>
+      </c>
+      <c r="G33" t="n">
+        <v>44800</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>429.79025</v>
+      </c>
+      <c r="J33" t="n">
+        <v>246.5265</v>
+      </c>
+      <c r="K33" t="n">
+        <v>74.571</v>
+      </c>
+      <c r="L33" t="n">
+        <v>35.77025</v>
+      </c>
+      <c r="M33" t="n">
+        <v>183.26375</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-38.80074999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>144.463</v>
+      </c>
+      <c r="P33" t="n">
+        <v>42.64027627429892</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-52.03195612235319</v>
+      </c>
+      <c r="R33" t="n">
+        <v>28.64276349541128</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>19102023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20102023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>09:21:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>43700</v>
+      </c>
+      <c r="G34" t="n">
+        <v>42800</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>234.3225</v>
+      </c>
+      <c r="J34" t="n">
+        <v>265.8225</v>
+      </c>
+      <c r="K34" t="n">
+        <v>44.47125</v>
+      </c>
+      <c r="L34" t="n">
+        <v>41.193</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-3.27825</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-34.77825</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-13.44301123451653</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-7.371616493802176</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-12.47454435402515</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20102023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23102023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>43700</v>
+      </c>
+      <c r="G35" t="n">
+        <v>42800</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>246.01375</v>
+      </c>
+      <c r="J35" t="n">
+        <v>193.563</v>
+      </c>
+      <c r="K35" t="n">
+        <v>35.2755</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18.15875</v>
+      </c>
+      <c r="M35" t="n">
+        <v>52.45075000000003</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-17.11675</v>
+      </c>
+      <c r="O35" t="n">
+        <v>35.33400000000003</v>
+      </c>
+      <c r="P35" t="n">
+        <v>21.32025140871193</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-48.52305424444728</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12.5614469802881</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23102023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25102023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>43100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>44000</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>236.3125</v>
+      </c>
+      <c r="J36" t="n">
+        <v>544.7602499999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>21.15525</v>
+      </c>
+      <c r="L36" t="n">
+        <v>126.962</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-308.4477499999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>105.80675</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-202.6409999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-130.5253636604073</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>500.144172250387</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-78.70539125774</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25102023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>26102023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>42800</v>
+      </c>
+      <c r="G37" t="n">
+        <v>43700</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>417.4025</v>
+      </c>
+      <c r="J37" t="n">
+        <v>291.09825</v>
+      </c>
+      <c r="K37" t="n">
+        <v>82.61099999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>53.68025</v>
+      </c>
+      <c r="M37" t="n">
+        <v>126.30425</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-28.93074999999999</v>
+      </c>
+      <c r="O37" t="n">
+        <v>97.37350000000004</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30.25958157893162</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-35.02045732408516</v>
+      </c>
+      <c r="R37" t="n">
+        <v>19.47417419729668</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26102023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>27102023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>42300</v>
+      </c>
+      <c r="G38" t="n">
+        <v>43100</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>380.9855</v>
+      </c>
+      <c r="J38" t="n">
+        <v>446.1194999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>72.10874999999999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>87.0625</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-65.1339999999999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>14.95375000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-50.18024999999989</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-17.09618870009486</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20.73777454192455</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-11.07501364230508</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Market DOWN, Sell CE</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>27102023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>30102023</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>42800</v>
+      </c>
+      <c r="G39" t="n">
+        <v>41900</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>213.67625</v>
+      </c>
+      <c r="J39" t="n">
+        <v>325.3185</v>
+      </c>
+      <c r="K39" t="n">
+        <v>40.45124999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>48.6555</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-111.64225</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.204250000000002</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-103.438</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-52.24831959564994</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>20.28182071011403</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-40.70319032768982</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Market UP, Sell PE</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30102023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>31102023</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>15:25:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>09:32:00</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>09:19:00</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>43100</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G40" t="n">
         <v>42200</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I40" t="n">
         <v>168.6525</v>
       </c>
-      <c r="I29" t="n">
-        <v>219.03975</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="J40" t="n">
+        <v>283.1084999999999</v>
+      </c>
+      <c r="K40" t="n">
         <v>23.4165</v>
       </c>
-      <c r="K29" t="n">
-        <v>27.21325</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-50.38724999999997</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.796750000000003</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-46.59049999999996</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-29.87637301552006</v>
-      </c>
-      <c r="P29" t="n">
-        <v>16.21399440565414</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-24.25716799691775</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="L40" t="n">
+        <v>84.62474999999999</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-114.4559999999999</v>
+      </c>
+      <c r="N40" t="n">
+        <v>61.20824999999999</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-53.24774999999994</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-67.86498866011469</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>261.3894049067965</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-27.7232400855942</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>Market UP, Sell PE</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Hedge Trail Stop</t>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Trail Stop Hit</t>
         </is>
       </c>
     </row>
